--- a/500all/speech_level/speeches_CHRG-114hhrg20255.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20255.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Good morning. We are here for the subcommittee on Oversight and Investigations for the Committee on Energy and Commerce for a hearing called ``Examining the U.S. Public Health Response to the Zika virus.''    This morning we'll be examining this other public health crisis affecting the Western Hemisphere, that Zika virus. This virus of mosquito-borne pathogen is currently rampaging through South and Central America, and in total has spread to more than 48 countries and territories.    While as of late February there have been no known locally-acquired mosquito-borne cases reported in the Continental U.S., over 100 travel-associated Zika virus cases have been identified in over 20 states. Outside of the 50 states local mosquito-borne transmissions have been reported in Puerto Rico, the U.S. Virgin Islands, and American Samoa. Public health officials in the U.S. are bracing for the time when Zika passes from a traveler with Zika in his or her blood to a local mosquito, and then to another person.    Only about one and five people with Zika infection exhibit symptoms, most of which are mild and flu-like. Of greater concern is growing evidence of a link between Zika infection and microcephaly, a congenital birth defect in infants born to infected mothers, as well as Guillain-Barre Syndrome, an immune disorder that can result in temporary paralysis. On this basis, the World Health Organization recently declared Zika a public health emergency of international concern.    The virus may also be transmitted through blood transfusions and sex, leaving the Center for Disease Control to issue interim guidelines for prevention of sexual transmission, and the Food and Drug Administration to take steps to reduce the risk to the U.S. blood supply.    Thus far, there has been only one reported case in the U.S. of a child born with microcephaly to a mother with travel-associated Zika virus. However, other pregnant American women have become infected with Zika. Our understanding of how the virus may impact a developing child during pregnancy is nearly non-existent. We can, however, reasonably assume that a virus affecting development of the brain on a large scale leading to microcephaly in the first trimester will also impact significant developmental functions for infants, toddlers, and children exposed to the Zika virus. These include my concerns for developmental disorders of difficulty with learning, primary sensory and sensory integration, memory, attention, concentration, behavior, mood, language, motor, and others.    Given all of the unknowns the importance of acting now to protect pregnant women and women of reproductive age from exposure to Zika virus cannot be overstated. However, we must be equally concerned with protecting infants and children with developing brains and not wait 5 to 10 years for symptoms to appear before we take action to protect, to track, and to treat.    To help prepare for and respond to Zika, the Administration recently requested Congress provide over $1.8 billion in emergency funding. The request includes support to states, U.S. territories, the International Community for Mosquito Control, virus testing, and expanding surveillance and response activities. It also supports efforts to build upon existing resources to develop a vaccine for Zika.    While the Administration's request has worthy aims, it's one-off emergency funding approach like the $6 billion for Ebola emergency funding demonstrates a reactionary posture towards public health preparedness rather than a strategic one. We want a strategic posture.    On February 12th, this subcommittee held a hearing examining the federal government's preparedness for biological threats focused on the finding of the Blue Ribbon Study Panel on Biodefense. The panel concluded that the federal government is ill prepared to handle future biological threats, an alarming conclusion because since 2002 infectious disease outbreaks, epidemics, and pandemics have emerged with increasing frequency, and Zika is just the latest example of this trend.    The Administration's response to Zika raises very serious questions. There are no commercially available diagnostic tests for Zika, nor has a vaccine been developed. In the absence of these measures, mosquito control is the nation's critical defense. However, mosquito control in the U.S. is a patchwork of 700 mosquito abatement districts depending on the state, county, and city funding and personnel with varying capabilities. This unorganized hodgepodge could leave the U.S. vulnerable to a rapid outbreak of Zika. The Administration has not explained how its emergency request will address issues with vector control. We want to work with the Administration to solve that problem.    Public Health Departments and the CDC are using two Zika diagnostic tests only available for U.S. labs. As the Government Accountability Office testimony makes clear, these tests have serious limitations, including the ability to either detect Zika or to be able to distinguish Zika from other viruses.    In addition, the confirmatory testing for Zika detection is used only by CDC and a few labs, is cumbersome and not suitable for screening a large number of individuals. This very limited capacity for confirmatory testing is very troubling when we consider the expected surge and the demand for Zika testing as we reach the warmer months. Again, the Administration must explain its plan to address this testing capacity issue.    Once again as with Ebola, we are assured that Zika will not be a significant problem in the U.S., and while Dr. Anthony Fauci of NIH has stated that it is unlikely the U.S. will have a major Zika outbreak, other experts differ. In his written testimony to this committee, Dr. Peter Hotez of Baylor School of Medicine notes the experience of Texas showed a Dengue outbreak occurred in the poorest areas of Houston and other Gulf Coast cities vulnerable to Zika.    This morning we'll be taking testimony from a panel of federal witnesses and experts, including the Assistant Secretary for Preparedness and Response at HHS, the Director of CDC, the Director of the National Institute of Allergy and Infectious Diseases at NIH, the Acting Chief Scientists of FDA, as well as the Chief Scientist of the GAO. Welcome. We will then hear from a second panel featuring specialists in tropical and maternal fetal medicine, mosquito control, and global health law.    I want to thank all our witnesses for joining us this morning and look forward to hearing your testimonies.    I now recognize, since Ms. DeGette is not here, we're promoting her to the Ranking Member Pro Tempe of the subcommittee, Ms. Castor of Florida, for 5 minutes.</t>
   </si>
   <si>
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Well, thank you, Mr. Chairman, for calling this important hearing, and I want to thank all of our expert witnesses who are here today for everything that you do to keep American families healthy and safe.    So many of my neighbors across the State of Florida, and the Gulf Coast, and Puerto Rico are very concerned with the impacts of the Zika virus. We want our states and our communities to be well prepared and we want to better understand the impacts of the virus.    In Florida, CDC has confirmed the Zika case count is now up to 44 cases. All of these cases are travel-related, so there are no locally-acquired cases in Florida. Overwhelmingly, people who have traveled to Brazil and Latin America to visit family and friends, or travel on business or for pleasure have contracted the virus and have brought it back. Fortunately, the Zika symptoms are not severe but there is a great concern for emerging evidence to support the association between Zika and microcephaly in infants born to mothers who contracted the Zika virus during pregnancy.    I'm also especially concerned with the American citizens in Puerto Rico because we now have 117 confirmed cases. It is the most affected area in the United States, and the CDC predicts a sharp rise. Again, family and friends who travel back and forth from Puerto Rico to the U.S. want to know what the impacts are and how they can be better prepared, especially as spring and summer approach. That's going to bring larger and more active mosquito populations. The U.S. must be prepared to quickly address local transmission within Puerto Rico, the Gulf Coast, and the entire United States.    I'm also particularly concerned with the weakening of our public health infrastructure across the country. After the Great Recession, I saw very significant cuts in the State of Florida, but Florida is not alone. We have those cuts and weakenings to public health departments and public health infrastructure. And I think Ebola was something of a wake-up call, but the Zika virus and other viruses, diseases, we've got to be better prepared. I agree with Chairman Murphy, a much more robust prevention strategy would be in our best interest.    For the Zika virus, addressing the crisis requires a multidimensional response, including accelerating the research, development, and procurement of vaccines and diagnostics, providing emergency assistance to states. Thank you, CDC, for what you've done in responding quickly to the State of Florida's request, and we've got to enhance our surveillance capacity.    Thank you, again. I look forward to your testimony. I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. Thank you, Chairman, thank you for the recognition, thank you for having this hearing this morning, thanks to our witnesses. We always learn so much when we have a panel like this in front of us, and today I'm sure will be no exception.    This virus continues to spread through the Americas and it really has become clear that this is a direct threat to our public health and our public safety. So I'm in contact with people back in my state, and my county health officials, and one of the things that they've expressed to me is concern over the flexibility and the scalability of federal aid at the state level, so I'm actually interested in hearing from our panel about that this morning. Obviously, I share that concern. It is important that state and local agencies, as well as the local docs on the ground have the ability to fight what they need to fight and not have barriers from us at the federal level.    You know, Ebola happened in our backyard in north Texas, and many ways we thought we were prepared, but in some ways we turned out not to be prepared. So I guess I'm interested this morning; yes, I want the reassurances that we're prepared, but I really also want to hear what were the Lessons Learned when we went through the Ebola crisis in September and October of 2014, and what is the applicability of those lessons to what's going on on the ground today. A variety of other questions concerning the testing and the development of tests for this illness. And, obviously, I'm terribly interested, Dr. Fauci, in the pathogenesis of the illness as it affects pregnancies, both miscarriages and infants who are born affected, and very interested in learning the status of the vaccine development.    Thank you, Mr. Chairman. I will yield back my time.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Borio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Borio. Luciana.</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. It's up to you.</t>
   </si>
   <si>
@@ -121,27 +106,18 @@
     <t xml:space="preserve">    Mr. Murphy. Thank you. Now we'll go and proceed with the testimony. We'll start with you, Dr. Lurie. You know how this works; watch your lights and try and keep it at 5 minutes.    Thank you very much. You may proceed. ADMINISTRATION; TIMOTHY PERSONS, Ph.D., CHIEF SCIENTIST, U.S. </t>
   </si>
   <si>
-    <t>Lurie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lurie. Thanks. Good morning, Chairman Murphy, Ms. Castor, and distinguished members of the subcommittee. I'm Dr. Nicole Lurie, the Assistant Secretary for Preparedness and Response, and thank you for the opportunity to talk to you today about yet another emerging threat, the Zika virus.    While we don't yet know everything we need to know about Zika, as a primary care physician and as a mom, I know how deeply concerning what we're all learning is. As you know, ASPR was established almost a decade ago by the Pandemic and All Hazards Preparedness Act in part to overhaul the government's approach to emergencies that threatens the public's health, whether naturally occurring or manmade. Since that time and with the support of Congress including many of you, ASPR has done just that, developing a flexible set of capabilities to quickly adapt to challenging threats, including Ebola, MURS, and now Zika virus.    Since early reports of the potential link between Zika virus and microcephaly, HHS has taken proactive and as scientific evidence has mounted increasingly targeted actions to protect the American people. Today I'll highlight three areas in which ASPR's work is critical.    First, our central role is to coordinate across HHS and beyond ensuring that all components have the latest information and best scientific evidence to inform key decision making, and that all are driving toward the same goals.    Second, ASPR has a mandate to develop the most promising medical countermeasures through the Biomedical Advanced Research and Development Authority or BARDA. I know this committee is aware of how successful BARDA has been producing 22 licensed products and support nearly 200 countermeasure candidates over the years.    Third, ASPR is clearing longstanding obstacles to progress in this area, such as agreements on virus sample sharing and close collaboration with regional and international partners. You should know that well before the first case of Zika in the U.S. in early January, I convened the HHS Disaster Leadership Group to coordinate our preparedness efforts. This group is made up of leaders from across HHS including CDC, NIH, and FDA, and it ensures that the department's senior leaders have shared awareness and the ability to make timely, informed, and coordinated decisions during emergencies. We've convened this group for every emergency and it will continue to meet throughout this crisis.    Similarly, on December 2nd of last year I directed the Public Health and Medical Countermeasure Enterprise or PHEMCE to conduct a comprehensive review of its portfolio to identify candidate products with the potential to stop transmission of Zika.    This committee is well aware that the best ideas for medical countermeasures won't translate into the drugs, vaccines, diagnostics we need without investment. The BARDA component of ASPR is tasked with transitioning promising medical countermeasures through advanced development and across the so called valley of death toward FDA approval. In the case of Zika we've established three countermeasure priorities, vaccines, diagnostics that can detect both acute and previous infections, and insuring a blood supply that's safe by developing blood screening tests for Zika, and techniques for virus inactivation in blood.    Because access to virus samples is critical for developing diagnostics and vaccines, we've worked across government to successfully establish sample sharing and vaccine development agreements, including with Panama and Brazil, respectively. We've also established a mechanism to address international requests for assistance because we recognize that health security knows no borders.    While we move forward aggressively to prepare for the threat of Zika, many of our efforts will depend on new resources. The Emergency Supplemental Request includes funds for CDC, which is responsible for the bulk of the public health response, for medical countermeasure development, and for contingencies that may arise over the course of the response.    For countermeasures we've been successful in moving from a reactive model of preparedness to a proactive one, building on strong day to day systems and a flexible set of capabilities to do this. The same goes for state and local health departments which is why preparedness for all hazards is so important.    A lesson from both H1N1 and Ebola was the need for flexible funding to insure that we can move quickly as other departments can so that something that starts as a crisis does not become a full-blown emergency. The contingency fund included in the President's supplemental request addresses this overarching need; enabling us, if needed, to make emergency procurements or quickly take other actions that become necessary but that we cannot currently anticipate.    In sum, HHS has mounted a proactive and coordinated response to the Zika virus, building on Lessons Learned from previous challenges, and the domestic preparedness infrastructure we've worked so hard to establish. Congressional approval of the Administration's funding request will provide critical resources to improve our ability to prevent, detect, respond, and rapidly adjust to Zika and other emerging vector-borne infectious diseases.    Thank you again for inviting me here. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Dr. Lurie.    Now, Dr. Frieden, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Frieden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Frieden. Thank you very much, Chairman Murphy, Representative Castor, and members of the subcommittee.    At the outset, I want to make a few key points. First, we're literally still discovering new things every day about Zika. CDC has about 600 staff currently working on this response. We're activated at Level 1, the highest level of our emergency operations center. We have staff in Brazil, Colombia, Puerto Rico, and other parts of the world looking at and learning from a developing situation.    Zika is new, and new diseases can be scary particularly when they affect the most vulnerable among us. And it's also particularly scary because in Puerto Rico today cases are doubling every week. By April we're likely to see widespread transmission in Puerto Rico, and by June, mosquito season is likely to start in parts of the U.S. where the mosquito that can spread Zika is present. There's a limited window of opportunity to take action. When we look at chikungunya which affected Puerto Rico, started in 2014, within 2 months it was all over the island, within 8 months one out of four adults were infected. If that pattern is followed with Zika we could see hundreds of thousands of infections by the end of the year.    CDC is working 24/7 to respond to this, learning more about the link with microcephaly, Guillain-Barre AE1 Syndrome, improving diagnostics, looking at ways to optimize vector control with current tools. This is the latest in a series of unpredicted and unpredictable health threats. What is predictable is that there will be more health threats, and that's why it's so important that we continue to improve the ability of countries around the world to find, stop, and prevent health threats.    Now, first, what do we know about Zika? You've outlined, Mr. Chairman, other members some of the key facts here. It's been around since 1947. We didn't know it could cause outbreaks until 2007. It was thought to cause mostly mild disease. It spread primarily by the Aedes aegypti mosquito. This is the cockroach of mosquitoes. It lives indoors, it lives in the shade, it is hard to kill, and it's very effective at spreading diseases. That's why Dengue and Chikungunya and other diseases spread by it can spread so explosively.    What is really new and unprecedented is the link to microcephaly. It's been more than 50 years since a pathogen causing microcephaly or other severe birth defects was identified that would do so on such a broad level. And as far as we know, never before has there been a mosquito-borne cause of a severe fetal malformation.    The link to Guillain-Barre AE1 Syndrome looks increasingly certain. Studies published this week, if replicated would basically prove that link, and it wouldn't be surprising. We've seen Guillain-Barre AE1 Syndrome after a wide variety of infections. But microcephaly, the complication of microcephaly is truly unanticipated, potentially catastrophic, and permanent, the very definition of the need for an emergency supplemental response.    Fundamentally, there are four different patterns of spread. First, among travelers, some of them pregnant. And we have 40 million people going to and from Zika-affected areas each year. Second, sexual partners. This is why we issued guidance to reduce the risk of sexual transmission. Third, possible cases and clusters in parts of the U.S. that have the mosquito vectors present. That's why we need to scale up our support for those entities. Fourth, areas likely to have widespread transmission around the world, and especially in parts of the U.S., including Puerto Rico, that have had large outbreaks of Dengue.    The supplemental is critically important for CDC to respond as part of a whole of government response. The request of CDC is for $828 million in three categories: urgent support for Puerto Rico, a response in the Continental U.S., and international support, as well.    There are many very concerning diseases out there whether it's Ebola, SARS, MURS, or the next HIV. We can't let down our guard. Supplemental funding is essential for us to do several things, including reducing the risk to pregnant women by finding out more and doing more especially in Puerto Rico and other areas where it may spread widely, by finding where mosquitoes are spreading in the U.S., and better controlling them, by establishing a registry for birth defects and improving the monitoring of pregnant women, by supporting states and territories directly to improve prevention and management of cases, diagnosis of patients, increased laboratory capacity, and implement key interventions. This is a critically important and urgent need, and I look forward to answering your questions. And thank you for the invitation to appear before you today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Dr. Frieden.    Dr. Fauci, you're recognized for five minutes.</t>
   </si>
   <si>
-    <t>Fauci</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fauci. Mr. Chairman, Ms. Castor, members of the committee, first I want to thank you for giving me the opportunity to discuss with you today the role of the National Institute of Allergy and Infectious Diseases and the NIH in general in the research endeavor to address this. As you know, the NIH is part of a multi-component aspect of the Department of Health and Human Services, and we're responsible primarily for the research for the development of countermeasures.    As I have told this committee in past hearings, the dual mandate of the Institute is somewhat unique among NIH institutes because although we, like others, have the responsibility of developing a robust basic and clinical protocol and agenda in all of the areas for which we're responsible, for us it happens to be infectious diseases, microbiology, and immunology. However, we also have the unique dual mandate of being able to respond very rapidly to emerging threats. And as a matter of fact, that's exactly what we're doing right now.    I had the opportunity and the privilege to write this perspective in the New England Journal of Medicine in January in which I said exactly what Mr. Chairman said in his opening statements, that this is yet again another threat, another arbovirus threat. If you historically over the last couple of decades we had West Nile, we have chikungunya, we have dengue, and now we have Zika. And as Tom said just a few moments ago, we're going to have others, so it's very important for us to have as part of the overall effort a research component to be able to develop the response. And as shown on this slide it's multifaceted. We do everything from basic research to fundamental clinical research and clinical trials. We do provide, not very well appreciated, the research resources for pharmaceutical companies, as well as for academics who want to get into the field of studying this disease, and we're already negotiating with a number of them.    The bottom line of it all, and the end game is to develop diagnostics, therapeutics, and vaccines. I just want to spend a minute or so going through some of the things that we are now addressing.    First, natural history. We were discussing just a couple of moments ago, it's very important to understand the true natural history, not only of the disease, symptomatic versus asymptomatic. Can an asymptomatic person who's infected and pregnant actually have a baby who is a microcephalic baby, or a baby that has a congenital defect? We need to study that. we also need to have cohort studies to understand how this has evolved. What we call pathogenesis of disease is trying to understand how this disease evolves. We did this with Ebola, we did this with HIV, and we're planning to do that with Zika.    Another is the fundamental basic research. We know an awful lot about viruses like HIV, like chikungunya, like dengue. We need to know a lot more about Zika. Luckily, it's related to some of those diseases.    Also, the immune response. We don't understand a lot about the immune response. The immune response is generally helpful. We know with dengue that immune response can actually enhance disease. We need to know the protection against Zika, and whether or not there are any deleterious effects. And also, we need to establish animal models.    You mentioned vector control. We do have basic research collaborations with pharmaceutical companies and individual investigators looking at novel ways to have vector control. You've heard of several of these such as Wolbachia infection of mosquitoes or genetic modification of mosquitoes.    Also in diagnostics, the CDC has taken the role in developing and now distributing widely some of the diagnostics that are available, but we still need high specific, easy to perform diagnostics that can tell an important question. To tell if someone is infected is relatively easy. We do a PCR, it's highly specific. The question that is really on everyone's mind is, have I been infected and if so, how long ago? And that is something that needs specificity because the current available antibody tests tend to cross-react with diseases that are prevalent in these societies, particularly dengue.    Now the issue that we're really concentrating much of our effort on is the issue of vaccines, and we now do have a couple of candidates that we're looking at putting into a Phase 1 trial, hopefully by the end of this summer and early fall, which will take a couple of months to determine if, in fact, they're safe and do they induce an immune response that will allow us to go to the next phase of the response, which is an efficacy phase. And we have a number of candidates that I'll be happy to talk to the group about during the question period.    One I want to bring up in particular, and that is why we have what we call vaccine platforms, things that we have experience with. An example is, we developed a vaccine for West Nile virus several years ago. It was safe, and it induced a good immune response. Unfortunately, there was no company that was particularly interested in partnering with us. I don't think we're going to have that problem now because we have a number of companies that are interested. But what we've done is we've taken that DNA platform and done a very simple thing; we've pulled out the gene of West Nile and we stuck in the gene of Zika, and we're going to be starting a Phase 1 trial, as I mentioned, hopefully. And then finally, we have our screening assays for the development of therapeutics we're going to be looking at because, obviously, therapeutics are a very important part.    So I'll close with this last slide, reiterating what Dr. Frieden, and Dr. Lurie, and I said, that these threats will continue to confront us. And I want to thank the committee for your interest and support of us during these periods. Thank you.</t>
   </si>
   <si>
@@ -367,9 +343,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you, Mr. Chairman.    Dr. Borio, as you mentioned in your opening the FDA is currently considering an application for a field trial with genetically engineered mosquitoes that would take place in the Florida Keys. Can you update us on where it stands today with your agency, and when you expect the Florida field trial to start? And I'm going to leap forward in an attempt to save a little bit of time because you know we're limited. Does the FDA have sufficient legal authority to expedite the review process for this product given the current Zika emergency? And if not, what additional authorities are needed?</t>
   </si>
   <si>
@@ -436,9 +409,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. Thank you very much, Mr. Chairman. I thank our panelists today. It's good to see you again, Dr. Frieden.    This question is for Dr. Frieden, Dr. Lurie, and Dr. Fauci. Just as a bit of background, it's my understanding that the majority of people infected with the Zika virus will remain asymptomatic. However, 20 percent of those infected will experience symptoms which range from fever to GBS, which can leave persons paralyzed.    Though so far there have been no local transmission of the virus in the Continental U.S., does CDC expect to see local transmission in the U.S. as the mosquito population increases this summer? While the mosquitoes that carry Zika are common in southern states, they can range as far north as my home district of Brooklyn, New York. Your location, as well as lack of access to air conditioning increases one's chance of coming in contact with the virus, as was pointed out by Dr. Frieden in discussing the situation in Puerto Rico.    Many of my constituents living in the Brownsville section of my district in Brooklyn are very low income, and likewise the low income communities of the south has some of the highest concentrations of poverty in the United States, and tend to lack access to air conditioning. In the south not only do these communities lack access to air conditioning, but they also lack access to health insurance as many southern governors have chosen not to expand Medicaid coverage under the ACA. If they do get sick with the Zika virus, having access to care may become problematic. The bottom line is that economically distressed Americans will likely be the ones most impacted by the spread of Zika were that to manifest.    With that in mind here's my question. What are we going to do to assist low income and disadvantaged communities to prevent being infected in the first place, as well as spread the word of the virus in their communities especially since Zika can be sexually transmitted?</t>
   </si>
   <si>
@@ -463,9 +433,6 @@
     <t>412550</t>
   </si>
   <si>
-    <t>Richard Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman, and thank you to the panel for this very informative discussion.    It was mentioned that there are clusters of dengue in Florida and Texas. It got me thinking, just in terms of folks coming across our southern border. There's been a lot of discussion about different diseases and other public health concerns.    Dr. Frieden, is this also a concern that folks coming across the border could be bringing Zika with them? Is that something we're looking at?</t>
   </si>
   <si>
@@ -520,9 +487,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chairman. Thank you to our witnesses for providing very valuable information.    I'm encouraged by our government's rapid response to the Zika virus, and the assistance we have provided and are continuing to provide in the areas most affected by the outbreak. This in my opinion underscores one of the most important messages we hear every time we have a hearing on disease outbreak, and that is that we have to be prepared for what we can't predict.    So with that in mind, Dr. Frieden, how is our response on Zika, and our continued response on Ebola preparing us for the next emerging threats?</t>
   </si>
   <si>
@@ -565,9 +529,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I want to thank the panel.    I've just got a couple of questions. Certainly, in the past, whether it was dengue fever or West Nile, the threat was there, but nothing like what we potentially have here with Zika and the link to the microcephaly. So if a woman is tested and she tests positive, I'm trying to--is there a treatment today? There isn't, so for a pregnant woman to be diagnosed with Zika is a very bad, stunningly bad day for her, her family, and the potential of which----</t>
   </si>
   <si>
@@ -649,9 +610,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman, and thank you so much for holding this important hearing.    I think what you were just talking about, Dr. Fauci and Dr. Lurie, I'm curious about what is BARDA, and HHS, and NIH doing to support and facilitate these platform-based technologies that you're referring to against the known and emerging threats? You've kind of talked about it a little bit, but what are you actually doing to support platform technologies? Dr. Lurie, you want to start?</t>
   </si>
   <si>
@@ -718,9 +676,6 @@
     <t xml:space="preserve">    Mr. Murphy. Gentlewoman yields back. Now recognize Mr. Bilirakis of Florida for five minutes.</t>
   </si>
   <si>
-    <t>Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you very much, Mr. Chairman. Thanks for allowing me to participate in this subcommittee. Appreciate it and thanks for holding the hearing.    The Zika outbreak like global issues especially pressing in Florida and other Gulf States given that these locations are vulnerable to the spread of Zika. In Florida we already have two cases in Hillsborough County, one of the counties that I represent.    A question for Dr. Borio. You mentioned innovation strategies being proposed to help suppress virus-carrying mosquitoes. It is my understanding that FDA is currently considering an application for a field trial with genetically engineered mosquitoes in Florida. The question is, could you update us on where the field trial application stands today, and when the earliest starting date could be?</t>
   </si>
   <si>
@@ -805,27 +760,18 @@
     <t xml:space="preserve">    Mr. Murphy. Thank you. All the panelists have affirmed that, so now you're under oath and subject to the penalties set forth in Title 18, Section 1001 of the United States Code.    We will now ask each of you to give a 5-minute summary of your opening statement. Dr. Hotez, you are recognized first. Please make sure you're turned on, bring the mic close to you, and watch for the red light. Thank you.STATEMENT OF PETER HOTEZ, M.D., Ph.D., DEAN, NATIONAL SCHOOL OF </t>
   </si>
   <si>
-    <t>Hotez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hotez. Mr. Chairman, Representative Castor, and members of the subcommittee, I thank you for giving me the opportunity to speak today. I'm Dean of the National School of Tropical Medicine at Baylor College of Medicine. I also head a product development partnership that makes neglected tropical disease vaccines that the big pharmaceutical companies won't make because they're vaccines for the diseases of the poorest people.    For my remarks about Zika today, I want to focus on my perspective living and working in the Gulf Coast of the United States, and our unique vulnerability to Zika epidemics, and why I believe that this spring or summer Zika could begin affecting pregnant women living in economically distressed areas of Texas, Louisiana, Mississippi, Alabama, and Florida. And why I worry that by the end of this year we could see microcephaly cases appearing on the Gulf Coast. I also want to talk a little bit about some of the hurdles in vaccine development if there's time.    The reason I'm concerned particularly about the Gulf Coast is because the Gulf Coast is unique in that it's the only part of the United States with the possible exception of Tucson, Arizona that has the Aedes aegypti mosquito. That's the mosquito that's now mostly responsible for transmission all over Latin America and the Caribbean, so it's Aedes aegypti that we mostly have to be concerned about. But my other reason I'm concerned about the Gulf Coast, and one not really being talked about enough is extreme poverty. I mean, the reason why we're seeing Zika in Pernambuco State and Recife in Brazil is because that's the poorest area, one of the poorest areas of Brazil. It is the epicenter, not just of Zika, but all of Brazil's neglected tropical diseases. It's where we see lymphatic filariasis, that's where we see schistosomiasis. And the reason there's so much Zika there is when you--and it doesn't take much to understand it. You an just view one of the poor communities, you see no window screens, holes in the window screens, but it's also the environmental degradation around the area. You see discarded tires, you see plastic containers filled with water, and all of those factors combine to make the perfect storm, and why Pernambuco is such a deadly place in terms of microcephaly cases and Zika.    It's the same reason why I'm very worried about Haiti. I know we're mostly focusing on the United States, but I'd just like to make the point that I think Haiti is going to be decimated by Zika. UNICEF estimates there's 264,000 pregnant women every year in Haiti, so we could be looking at more than 100,000, maybe 200,000 pregnant women with Zika in their first or second trimester. We could be looking at tens of thousands of cases of microcephaly in Haiti, in a country that basically has no health system. So this is a humanitarian catastrophe that's unfolding in front of our eyes, and I really don't see any significant global action right now happening in Haiti.    And the reason I'm particularly worried about the U.S. Gulf Coast, dengue actually caused outbreaks in Houston in 2003, 2004, and 2005. That was worked on by our National School of Tropical Medicine. The reasons are clear, we have Aedes aegypti, but where this is most happening are in the poor areas of Houston, so the historic African American wards like the Fifth Ward in Houston where I can take you there just a minute off the highway. This is not hard to find, and what I'll show you are dilapidated housings with no window screens, holes in the window screens. You'll see discarded tires all along the side of the road filled with organic debris and water, and the Aedes aegypti mosquito likes nothing more than discarded tires along the side of the road.    Right now our Harris County Mosquito Control Division is finding Aedes aegypti mosquitoes. Those numbers are going to start to climb beginning April and into May, and I'm quite worried that we won't learn that there's going to be a Zika outbreak until we start seeing microcephaly cases towards the end of the year. So what do we need to do about this?    First of all, I think the U.S. Government needs a more active role in coordinating what's going on in Haiti, or what's not going on in Haiti, working with the Organization of American States and WHO. Remember this is a disease we can fight. Between 1947 and 1962 we eradicated the Aedes aegypti mosquito from the Western Hemisphere for most of Latin America. We did it by old-fashioned mosquito control programs and being aggressive by draining water sources. The Aedes aegypti mosquito was eradicated in 18 Latin American countries and resulted in dramatic reductions in dengue and yellow fever.    Equally important, we need a coordinated response to combat the threat of Zika on the Gulf Coast. This means surveillance of mosquitos and Zika detection. Beyond mosquito control we need to collect the garbage, we need to get rid of the discarded tires and standing water in poor neighborhoods, provide pregnant women living in poverty with adequate screens for their homes. This approach goes beyond the health sector and beyond the remits of the CDC. It could require involvement of Housing and Urban Development, EPA, even Homeland Security. Remember, even if a few babies are born with microcephaly on the Gulf Coast it will be talked about in the same context as Katrina, it will be talked about in the same context as the BP Oil spills; so, therefore, I urge this committee to aggressively pursue policies to protect that region. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, doctor. Your time has expired. We'll come back to you.    Professor Gostin, you're recognized next for five minutes.</t>
   </si>
   <si>
-    <t>Gostin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gostin. Thank you, Mr. Chairman Murphy, Representative Castor, and the House subcommittee. I'm going to discuss four is very briefly. First is the President's supplemental appropriation. Secondly, how we continually under-invest and the financing of these kinds of ongoing threats. Third, our public health measures like travel isolation, quarantine. And fourth is child, maternal, and reproductive services.    First in terms of the President's appropriation which I strongly support. So why act now? Well first, as you've heard from the first panel, there's a clear and present danger to the United States and our hemisphere. The United States is the global health leader, humanitarian leader, and we are the major leader in our own hemisphere in the Americas and the Caribbean. We also have our own domestic homeland to protect.    We remember when Ebola arose here in Dallas and other places, how ill-prepared we were, and the public would not accept that. Ebola taught us a vital lesson to act quickly, act decisively, mobilize funding, and attack the hazard as its source. There have been four global commissions since Ebola. I was a member of two of them, and they have strongly urged us to act and act now.    I remember during the Ebola appropriations and when the President sent military forces and the Department of Defense into West Africa. I was on PBS News Hour and they asked me what I thought, and I said I was very proud of America, and I think we need to be proud of America now in our response to Zika.    Should we take Ebola funding for Zika? I think we should not. We would be robbing Peter to pay Paul. This is still a major threat in West Africa. We promised to rebuild and strengthen the decimated health system in West Africa, and America's word is its bond, and its leadership should never be placed in doubt. And that should be on a bipartisan basis, in my opinion.    Zika, moreover, has a deep moral as well as a health dimension. I'm a public health ethicist, and if you had a hearing, for example, nine months from now and there was a mother with a microcephalic child here and we failed to act decisively now, I think the American public would find that unacceptable.    From financing, we have continually underestimated our financing needs. I was a member of the National Academy of Science's Global Health Risk Framework Commission. They said that an Ebola epidemic, a SARS epidemic, an influenza epidemic, and now Zika could affect up to 10 percent of global GDP in the affected areas, and the commission suggested that there was an estimated $60 billion loss to GDP every year expected with $6 trillion in the 20th century, in the 21st century. With that, the President's $1.8 billion supplemental appropriation to me looks modest and would reap great benefits. I would also support a contingency fund so that we don't have to mobilize funds in the midst of an epidemic.    Third are public health measures. I believe that the CDC was absolutely right in its travel advisory for pregnant women. In fact, the CDC went further than the World Health Organization. I think it was right to do that. I think any of us if we had a daughter who asked us if she were pregnant should she go to a Zika-affected country, we would tell her what the CDC is telling her, that she should consider postponing that travel. But I would not go further and have travel restrictions or bars, isolations, quarantines, or border controls, some of which were used during Ebola, some successfully, but many not. I think there would also be Constitutional challenges appropriately to many of those measures.    And then, finally, I believe that we need to be very attentive to child, maternal, and reproductive services. Pope Francis supported the use of contraception particularly in relation to Zika. We have women in the United States and in Puerto Rico that need reproductive services and health care services for them and their children, and we shouldn't let them down if they're under-insured or uninsured.    So I thank you, Mr. Chairman and the committee for your clear recognition of this health threat facing the United States and the Americas, and for your leadership in this regard.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Professor.    Now we're going to turn to Mr. Conlon, who I also understand was an entomologist in the United States Navy for a couple of decades.</t>
   </si>
   <si>
-    <t>Conlon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conlon. Indeed.</t>
   </si>
   <si>
@@ -836,9 +782,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Mr. Conlon.    Dr. Sheffield, you're recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Sheffield. Thank you. Chairman Murphy, Ms. Castor and representatives, I'd like to thank you for the opportunity today to testify before you on the effects of Zika virus in pregnant women and how clinicians are responding to this virus threatening the United States and the rest of the Americas.    The Zika virus epidemic is a unique situation. It is a mild disease in adults in most cases, of little consequence to date other than the uncommon but potentially devastating complication of Guillain-Barre AE1 Syndrome. However, maternal Zika infection during pregnancy can have enormous consequences to the developing fetus. Zika has received international attention predominantly because of its effect on the developing fetus, specifically the association with microcephaly, significant effects on brain growth and development, and ocular abnormalities. Thus, much of the focus so far of current efforts has been on the management of the at-risk patients.    You've heard extensive testimony about the origin of this virus and its spread over the last six decades, so I won't repeat myself or repeat that information for the sake of time. While the Continental United States has not identified a case of local transmission of Zika, there is a growing number of confirmed travel-related cases, several of these in pregnant women as we've heard about. While transmission of Zika virus is primarily through the infected mosquito, transmission may also rarely occur through infected blood in laboratory accidents, vertical transmission from a pregnant mother to the fetus has been confirmed, and finally cases of sexual transmission of Zika from an infected person to an uninfected sexual partner is increasingly being documented.    Data regarding Zika virus infection in pregnancy are limited, and it is imperative that resources are directed to elucidating the pathophysiology of the infection on pregnancy, rate of fetal transmission, influence of timing in infection and relation to pregnancy on fetal manifestations of the disease, and long-term consequences of fetal infection. While it is unknown at this time if pregnant women are more susceptible to Zika virus, the disease itself does not appear any worse in pregnant women compared to non-pregnant women. Zika infects pregnant women in any trimester, and the virus has been found in multiple different tissues from fetal losses, amniotic fluid, the placenta, and the brain of infected neonates.    The Brazilian outbreak of virus was associated with a significant rise in microcephaly. Microcephaly itself is diagnosed when the head is significantly smaller than what would be expected for the sex and gestational age of the infant. There are many causes of microcephaly, average rate is about 2 to 12 per 10,000 live births in the United States. There are multiple etiologies or multiple causes, chromosomal abnormalities, genetic abnormalities, toxin exposures such as mercury, alcohol exposure during pregnancy, and in the case of Zika, also other infections such as cytomegalovirus and rubella.    The reason microcephaly develops in association with Zika is currently under investigation. Infants with microcephaly can have multiple long-term complications depending on the severity of the microcephaly and the associated abnormalities: seizures, developmental delay, including speech and motor abnormalities are just a few of these complications. There is no known cure, and treatments are very limited depending on what the etiology is of the microcephaly. Significant resources are going to have to be focused on the long-term care of these affected infants.    Since the microcephaly association was first noted several months ago, we now know that there's multiple other abnormalities, and I've detailed these in my written testimony. Soon after the association of Zika virus infection and fetal microcephaly was identified, the Centers for Disease Control and Prevention set up a health alert and brought together subject matter experts including arbovirus virologists, public health personnel, and obstetrics and gynecologists with expertise in infectious disease and pregnancy. While data were very limited at that time, interim guidelines were rapidly developed to inform physicians caring for pregnant women, management strategies were disseminated, and educational materials describing preventative measures were made widely available not just to physicians but to the general public. These guidelines have been updated several times as new information has been elucidated. As was mentioned, the American College of OBGYN and also the Society for Maternal-Fetal Medicine have played a very integral part in the development and dissemination of this information, and I will be glad to answer any questions related to the management of these patients.    Zika virus infection is now a notifiable disease allowing for better surveillance of disease burden. The CDC has developed a pregnancy registry with confirmed Zika infection in the United States. They actually released a report on Friday that was briefly mentioned earlier detailing the initial results of 257 Zika tests performed for pregnant women in the report, 3 percent were positive. The nine women that were positive, two electively terminated, two had a miscarriage or first trimester loss, one delivered an infant with severe microcephaly, and two pregnancies are ongoing, two pregnancies have delivered and so far there are no known effects to the infant. One woman was infected in a third trimester and delivered a healthy infant. So while this initial report is an important first step, much more is needed for the physician to be able to effectively counsel pregnant women at risk for infection. Support for both national and international research targeting key populations such as pregnant women is imperative. Until effective treatments and/or a vaccine are developed, prevention of maternal infection is necessary to prevent the devastating consequences of fetal infection. Thank you.</t>
@@ -1501,11 +1444,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1525,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1553,11 +1492,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1577,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1605,11 +1540,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1629,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1657,11 +1588,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1681,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1709,11 +1636,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1735,11 +1660,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1759,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1787,11 +1708,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1811,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1839,11 +1756,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1863,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1891,11 +1804,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1915,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1943,11 +1852,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1967,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1995,11 +1900,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2019,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2047,11 +1948,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2073,11 +1972,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2099,11 +1996,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2123,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2151,11 +2044,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2175,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2203,11 +2092,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2227,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2255,11 +2140,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2281,11 +2164,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2307,11 +2188,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2331,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2359,11 +2236,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2383,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2411,11 +2284,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2435,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2463,11 +2332,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2487,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2515,11 +2380,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2539,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2567,11 +2428,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2591,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2619,11 +2476,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2643,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2669,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2695,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2721,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2747,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2773,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2799,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2825,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2851,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2877,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2903,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2929,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2957,11 +2788,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2981,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3009,11 +2836,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3033,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3061,11 +2884,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3085,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3111,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3137,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3163,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3189,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3215,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3241,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3267,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3293,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3319,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3345,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3371,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3397,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3423,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3449,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3475,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3501,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3527,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3553,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3581,11 +3364,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3605,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3633,11 +3412,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3657,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3683,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3709,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3735,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3761,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3787,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3813,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3839,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3865,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3893,11 +3652,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3917,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3943,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3969,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
-      </c>
-      <c r="G97" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3995,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4021,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
-      </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4047,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4073,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4099,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4125,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>116</v>
-      </c>
-      <c r="G103" t="s">
+        <v>108</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>117</v>
-      </c>
-      <c r="H103" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4151,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4177,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>116</v>
-      </c>
-      <c r="G105" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4203,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4229,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
-      </c>
-      <c r="G107" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4255,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4281,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
-      </c>
-      <c r="G109" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4307,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4333,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4359,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4385,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>116</v>
-      </c>
-      <c r="G113" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4411,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4439,11 +4156,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4463,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>139</v>
-      </c>
-      <c r="G116" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4489,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4515,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>139</v>
-      </c>
-      <c r="G118" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4541,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4567,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4593,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>139</v>
-      </c>
-      <c r="G121" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4621,11 +4324,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4645,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
-      </c>
-      <c r="G123" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4671,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4697,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
-      </c>
-      <c r="G125" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4723,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4749,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>148</v>
-      </c>
-      <c r="G127" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4775,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4801,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>148</v>
-      </c>
-      <c r="G129" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4827,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4853,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>148</v>
-      </c>
-      <c r="G131" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4879,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4905,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
+        <v>138</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
         <v>148</v>
-      </c>
-      <c r="G133" t="s">
-        <v>149</v>
-      </c>
-      <c r="H133" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4931,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4957,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>148</v>
-      </c>
-      <c r="G135" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4983,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5009,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>148</v>
-      </c>
-      <c r="G137" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5035,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5061,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>148</v>
-      </c>
-      <c r="G139" t="s">
-        <v>149</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5089,11 +4756,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5113,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>167</v>
-      </c>
-      <c r="G141" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5139,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5165,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>167</v>
-      </c>
-      <c r="G143" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5191,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5217,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5243,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>167</v>
-      </c>
-      <c r="G146" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5269,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5295,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>167</v>
-      </c>
-      <c r="G148" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5321,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5347,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>167</v>
-      </c>
-      <c r="G150" t="s">
-        <v>168</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5373,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5399,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>167</v>
-      </c>
-      <c r="G152" t="s">
+        <v>156</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
         <v>168</v>
-      </c>
-      <c r="H152" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5427,11 +5068,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5451,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>182</v>
-      </c>
-      <c r="G154" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5477,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5503,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>182</v>
-      </c>
-      <c r="G156" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5529,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5555,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>182</v>
-      </c>
-      <c r="G158" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5581,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5607,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5633,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>182</v>
-      </c>
-      <c r="G161" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5659,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
-      </c>
-      <c r="G162" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5685,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>182</v>
-      </c>
-      <c r="G163" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5711,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5737,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
+        <v>170</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
         <v>182</v>
-      </c>
-      <c r="G165" t="s">
-        <v>183</v>
-      </c>
-      <c r="H165" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5763,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
-      </c>
-      <c r="G166" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5789,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>182</v>
-      </c>
-      <c r="G167" t="s">
+        <v>170</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
         <v>183</v>
-      </c>
-      <c r="H167" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5815,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
-      </c>
-      <c r="G168" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5841,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>182</v>
-      </c>
-      <c r="G169" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5867,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5893,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>182</v>
-      </c>
-      <c r="G171" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5919,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5945,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5971,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>182</v>
-      </c>
-      <c r="G174" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5997,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6023,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6049,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>182</v>
-      </c>
-      <c r="G177" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6075,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6101,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6127,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>182</v>
-      </c>
-      <c r="G180" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6155,11 +5740,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6179,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>210</v>
-      </c>
-      <c r="G182" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6205,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6231,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>210</v>
-      </c>
-      <c r="G184" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6257,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6283,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>210</v>
-      </c>
-      <c r="G186" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6309,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6335,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>210</v>
-      </c>
-      <c r="G188" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6361,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6387,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>210</v>
-      </c>
-      <c r="G190" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6413,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6439,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>210</v>
-      </c>
-      <c r="G192" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6465,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
-      </c>
-      <c r="G193" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6491,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
+        <v>197</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
         <v>210</v>
-      </c>
-      <c r="G194" t="s">
-        <v>211</v>
-      </c>
-      <c r="H194" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6517,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
-      </c>
-      <c r="G195" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6543,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>210</v>
-      </c>
-      <c r="G196" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6569,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
-      </c>
-      <c r="G197" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6595,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>210</v>
-      </c>
-      <c r="G198" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6621,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
-      </c>
-      <c r="G199" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6647,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>210</v>
-      </c>
-      <c r="G200" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6673,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6699,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>210</v>
-      </c>
-      <c r="G202" t="s">
-        <v>211</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6727,11 +6268,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6751,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>22</v>
-      </c>
-      <c r="G204" t="s">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6777,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
-      </c>
-      <c r="G205" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6803,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>22</v>
-      </c>
-      <c r="G206" t="s">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6829,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>22</v>
-      </c>
-      <c r="G207" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6855,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>22</v>
-      </c>
-      <c r="G208" t="s">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6881,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>22</v>
-      </c>
-      <c r="G209" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6907,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>22</v>
-      </c>
-      <c r="G210" t="s">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6933,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>22</v>
-      </c>
-      <c r="G211" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6959,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
-      </c>
-      <c r="G212" t="s">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6985,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>22</v>
-      </c>
-      <c r="G213" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7011,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" t="s">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7037,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>22</v>
-      </c>
-      <c r="G215" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7063,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>22</v>
-      </c>
-      <c r="G216" t="s">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7089,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>22</v>
-      </c>
-      <c r="G217" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7115,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>22</v>
-      </c>
-      <c r="G218" t="s">
+        <v>19</v>
+      </c>
+      <c r="G218" t="s"/>
+      <c r="H218" t="s">
         <v>234</v>
-      </c>
-      <c r="H218" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7141,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>22</v>
-      </c>
-      <c r="G219" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7167,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>22</v>
-      </c>
-      <c r="G220" t="s">
-        <v>234</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7195,11 +6700,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7219,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>139</v>
-      </c>
-      <c r="G222" t="s">
-        <v>140</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7245,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>22</v>
-      </c>
-      <c r="G223" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7273,11 +6772,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7297,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7323,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>22</v>
-      </c>
-      <c r="G226" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7349,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7375,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>22</v>
-      </c>
-      <c r="G228" t="s">
-        <v>38</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7401,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7429,11 +6916,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7455,11 +6940,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7479,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>22</v>
-      </c>
-      <c r="G232" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7507,11 +6988,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7531,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>22</v>
-      </c>
-      <c r="G234" t="s">
-        <v>266</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7559,11 +7036,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7583,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>22</v>
-      </c>
-      <c r="G236" t="s">
-        <v>269</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7611,11 +7084,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7635,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>22</v>
-      </c>
-      <c r="G238" t="s">
-        <v>269</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7663,11 +7132,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7687,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>22</v>
-      </c>
-      <c r="G240" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7715,11 +7180,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7739,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>22</v>
-      </c>
-      <c r="G242" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7767,11 +7228,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7791,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>22</v>
-      </c>
-      <c r="G244" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7819,11 +7276,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7843,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>22</v>
-      </c>
-      <c r="G246" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7871,11 +7324,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7895,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>22</v>
-      </c>
-      <c r="G248" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7923,11 +7372,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>12</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7947,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>22</v>
-      </c>
-      <c r="G250" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7975,11 +7420,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7999,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>22</v>
-      </c>
-      <c r="G252" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8027,11 +7468,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8051,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>22</v>
-      </c>
-      <c r="G254" t="s">
-        <v>269</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8079,11 +7516,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8103,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>22</v>
-      </c>
-      <c r="G256" t="s">
-        <v>269</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8131,11 +7564,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8155,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>22</v>
-      </c>
-      <c r="G258" t="s">
-        <v>269</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8183,11 +7612,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8207,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8233,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>22</v>
-      </c>
-      <c r="G261" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8259,13 +7682,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8285,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>22</v>
-      </c>
-      <c r="G263" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8311,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8337,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>22</v>
-      </c>
-      <c r="G265" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8363,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8389,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>22</v>
-      </c>
-      <c r="G267" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8415,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8441,13 +7850,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>22</v>
-      </c>
-      <c r="G269" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8467,13 +7874,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>14</v>
-      </c>
-      <c r="G270" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8493,13 +7898,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>22</v>
-      </c>
-      <c r="G271" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8519,13 +7922,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8545,13 +7946,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>22</v>
-      </c>
-      <c r="G273" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8571,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8597,13 +7994,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>22</v>
-      </c>
-      <c r="G275" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8623,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8651,11 +8044,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>12</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8675,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>182</v>
-      </c>
-      <c r="G278" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8701,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>22</v>
-      </c>
-      <c r="G279" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8727,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>182</v>
-      </c>
-      <c r="G280" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8753,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>22</v>
-      </c>
-      <c r="G281" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8779,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>22</v>
-      </c>
-      <c r="G282" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8805,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>182</v>
-      </c>
-      <c r="G283" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8831,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>22</v>
-      </c>
-      <c r="G284" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8857,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>22</v>
-      </c>
-      <c r="G285" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8883,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>182</v>
-      </c>
-      <c r="G286" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8909,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>22</v>
-      </c>
-      <c r="G287" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8935,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>182</v>
-      </c>
-      <c r="G288" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8961,13 +8330,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>22</v>
-      </c>
-      <c r="G289" t="s">
-        <v>266</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8987,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>182</v>
-      </c>
-      <c r="G290" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9013,13 +8378,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>22</v>
-      </c>
-      <c r="G291" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9039,13 +8402,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>182</v>
-      </c>
-      <c r="G292" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9065,13 +8426,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>22</v>
-      </c>
-      <c r="G293" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9091,13 +8450,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>22</v>
-      </c>
-      <c r="G294" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9117,13 +8474,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>182</v>
-      </c>
-      <c r="G295" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9143,13 +8498,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>22</v>
-      </c>
-      <c r="G296" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9169,13 +8522,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>182</v>
-      </c>
-      <c r="G297" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9195,13 +8546,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>22</v>
-      </c>
-      <c r="G298" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9221,13 +8570,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>182</v>
-      </c>
-      <c r="G299" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9249,11 +8596,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>12</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9273,13 +8618,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>14</v>
-      </c>
-      <c r="G301" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9299,13 +8642,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>22</v>
-      </c>
-      <c r="G302" t="s">
-        <v>263</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9325,13 +8666,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>14</v>
-      </c>
-      <c r="G303" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9351,13 +8690,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>22</v>
-      </c>
-      <c r="G304" t="s">
-        <v>266</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9377,13 +8714,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>14</v>
-      </c>
-      <c r="G305" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9403,13 +8738,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>22</v>
-      </c>
-      <c r="G306" t="s">
-        <v>266</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9429,13 +8762,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>14</v>
-      </c>
-      <c r="G307" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9455,13 +8786,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>22</v>
-      </c>
-      <c r="G308" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9481,13 +8810,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>14</v>
-      </c>
-      <c r="G309" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9507,13 +8834,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>22</v>
-      </c>
-      <c r="G310" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9533,13 +8858,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>14</v>
-      </c>
-      <c r="G311" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9561,11 +8884,9 @@
       <c r="F312" t="s">
         <v>11</v>
       </c>
-      <c r="G312" t="s">
-        <v>12</v>
-      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9585,13 +8906,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>22</v>
-      </c>
-      <c r="G313" t="s">
-        <v>266</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9613,11 +8932,9 @@
       <c r="F314" t="s">
         <v>11</v>
       </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9637,13 +8954,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>22</v>
-      </c>
-      <c r="G315" t="s">
-        <v>269</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9665,11 +8980,9 @@
       <c r="F316" t="s">
         <v>11</v>
       </c>
-      <c r="G316" t="s">
-        <v>12</v>
-      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9689,13 +9002,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>22</v>
-      </c>
-      <c r="G317" t="s">
-        <v>269</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9717,11 +9028,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>12</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9741,13 +9050,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>22</v>
-      </c>
-      <c r="G319" t="s">
-        <v>269</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9769,11 +9076,9 @@
       <c r="F320" t="s">
         <v>11</v>
       </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9793,13 +9098,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>22</v>
-      </c>
-      <c r="G321" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9821,11 +9124,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>12</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9845,13 +9146,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>22</v>
-      </c>
-      <c r="G323" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9873,11 +9172,9 @@
       <c r="F324" t="s">
         <v>11</v>
       </c>
-      <c r="G324" t="s">
-        <v>12</v>
-      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9897,13 +9194,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>22</v>
-      </c>
-      <c r="G325" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9925,11 +9220,9 @@
       <c r="F326" t="s">
         <v>11</v>
       </c>
-      <c r="G326" t="s">
-        <v>12</v>
-      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9949,13 +9242,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>22</v>
-      </c>
-      <c r="G327" t="s">
-        <v>274</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9977,11 +9268,9 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-      <c r="G328" t="s">
-        <v>12</v>
-      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
